--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pneuviz/Projects/Republic-Services-Time-Tracker/time-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E538A-8EDF-B845-9FB0-2DF267BCC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AFE8A-E4E5-CD42-9047-338377ED223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E28970ED-CA6E-4151-ADB5-28994D19D697}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Punch Detail Report</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>Hilary Stewart</t>
+  </si>
+  <si>
+    <t>Exempt</t>
+  </si>
+  <si>
+    <t>0000-210</t>
+  </si>
+  <si>
+    <t>0000-211</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>et</t>
   </si>
 </sst>
 </file>
@@ -161,7 +188,7 @@
     <numFmt numFmtId="165" formatCode="[$-10409]hh:mm"/>
     <numFmt numFmtId="166" formatCode="[$-10409]0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +221,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -314,6 +347,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -633,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB898064-8347-491A-BC7B-07A548281EFE}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1536,9 +1573,13 @@
       <c r="C6" s="9">
         <v>45234</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10">
@@ -1565,9 +1606,13 @@
       <c r="C7" s="9">
         <v>45233</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10">
@@ -1594,9 +1639,13 @@
       <c r="C8" s="9">
         <v>45233</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10">
@@ -1623,9 +1672,13 @@
       <c r="C9" s="9">
         <v>45233</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10">
@@ -1652,9 +1705,13 @@
       <c r="C10" s="9">
         <v>45233</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10">
@@ -1681,9 +1738,13 @@
       <c r="C11" s="9">
         <v>45233</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10">
@@ -1710,9 +1771,13 @@
       <c r="C12" s="9">
         <v>45233</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10">
@@ -1739,9 +1804,13 @@
       <c r="C13" s="9">
         <v>45233</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10">
@@ -1768,9 +1837,13 @@
       <c r="C14" s="9">
         <v>45233</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10">
@@ -1797,9 +1870,13 @@
       <c r="C15" s="9">
         <v>45233</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10">
@@ -1826,9 +1903,13 @@
       <c r="C16" s="9">
         <v>45233</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="I16" s="10"/>
       <c r="J16" s="14">
@@ -3391,21 +3472,13 @@
       <c r="C87" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061BEB7EC909FFE4B9933A6CC2EDAA8AA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d8e6dda20f6ef4d3acd64d501c3102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d5566208-415f-41c3-8b4d-9f4806677333" xmlns:ns4="e5537340-bc61-4b78-9f61-d5db3f05086f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d31fc88802aed18126a802fc7f98642" ns3:_="" ns4:_="">
     <xsd:import namespace="d5566208-415f-41c3-8b4d-9f4806677333"/>
@@ -3588,6 +3661,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3597,14 +3679,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9E90C7-E343-45CD-A2F3-381BB8E5CFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD395FE9-AC7A-41ED-A112-6912D5A452FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3619,6 +3693,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9E90C7-E343-45CD-A2F3-381BB8E5CFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pneuviz/Projects/Republic-Services-Time-Tracker/time-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AFE8A-E4E5-CD42-9047-338377ED223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEEA7BB-16DA-9343-B309-031BF37B31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E28970ED-CA6E-4151-ADB5-28994D19D697}"/>
   </bookViews>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -347,10 +347,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -671,7 +667,7 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1571,9 +1567,9 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9">
-        <v>45234</v>
-      </c>
-      <c r="D6" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="8"/>
@@ -1604,9 +1600,9 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D7" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="8"/>
@@ -1637,9 +1633,9 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D8" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="8"/>
@@ -1670,9 +1666,9 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D9" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="8"/>
@@ -1703,9 +1699,9 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D10" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="8"/>
@@ -1736,9 +1732,9 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D11" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="8"/>
@@ -1769,9 +1765,9 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D12" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="8"/>
@@ -1802,9 +1798,9 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D13" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="8"/>
@@ -1835,9 +1831,9 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D14" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="8"/>
@@ -1868,9 +1864,9 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D15" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="8"/>
@@ -1901,9 +1897,9 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9">
-        <v>45233</v>
-      </c>
-      <c r="D16" s="16" t="s">
+        <v>45239</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="8"/>
@@ -3479,6 +3475,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061BEB7EC909FFE4B9933A6CC2EDAA8AA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d8e6dda20f6ef4d3acd64d501c3102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d5566208-415f-41c3-8b4d-9f4806677333" xmlns:ns4="e5537340-bc61-4b78-9f61-d5db3f05086f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d31fc88802aed18126a802fc7f98642" ns3:_="" ns4:_="">
     <xsd:import namespace="d5566208-415f-41c3-8b4d-9f4806677333"/>
@@ -3661,15 +3666,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3679,6 +3675,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9E90C7-E343-45CD-A2F3-381BB8E5CFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD395FE9-AC7A-41ED-A112-6912D5A452FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3693,14 +3697,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9E90C7-E343-45CD-A2F3-381BB8E5CFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pneuviz/Projects/Republic-Services-Time-Tracker/time-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEEA7BB-16DA-9343-B309-031BF37B31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BD8E5-C354-AA4F-B43E-19EABB1AFD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{E28970ED-CA6E-4151-ADB5-28994D19D697}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{E28970ED-CA6E-4151-ADB5-28994D19D697}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Punch Detail Report</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>et</t>
+  </si>
+  <si>
+    <t>0000-220</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -343,10 +346,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -667,7 +666,7 @@
   <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1567,24 +1566,22 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10">
-        <v>0.14305555555555557</v>
+        <v>45240.143055555556</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="15">
-        <v>0.41805555555555557</v>
-      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="8"/>
@@ -1600,7 +1597,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
@@ -1612,11 +1609,11 @@
       <c r="G7" s="8"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10">
-        <v>0.17430555555555557</v>
+        <v>45240.174305555556</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="15">
-        <v>0.49791666666666662</v>
+      <c r="L7" s="10">
+        <v>45240.5</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1633,7 +1630,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>41</v>
@@ -1645,12 +1642,10 @@
       <c r="G8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10">
-        <v>9.5833333333333326E-2</v>
+        <v>45240.095833333333</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="15">
-        <v>0.3972222222222222</v>
-      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="8"/>
@@ -1666,7 +1661,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>38</v>
@@ -1678,12 +1673,10 @@
       <c r="G9" s="8"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10">
-        <v>0.33958333333333335</v>
+        <v>45240.339583333334</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="15">
-        <v>0.76458333333333339</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="8"/>
@@ -1699,7 +1692,7 @@
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>43</v>
@@ -1711,12 +1704,10 @@
       <c r="G10" s="8"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10">
-        <v>0.46319444444444446</v>
+        <v>45240.463194444441</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="15">
-        <v>0.99791666666666667</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="8"/>
@@ -1732,7 +1723,7 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>44</v>
@@ -1744,12 +1735,10 @@
       <c r="G11" s="8"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10">
-        <v>0.5131944444444444</v>
+        <v>45240.513194444444</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="15">
-        <v>4.5138888888888888E-2</v>
-      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="8"/>
@@ -1765,24 +1754,22 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G12" s="8"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10">
-        <v>0.2722222222222222</v>
+        <v>45240.272222222222</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="15">
-        <v>0.63263888888888886</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="8"/>
@@ -1798,7 +1785,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
@@ -1810,12 +1797,10 @@
       <c r="G13" s="8"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10">
-        <v>0.30763888888888891</v>
+        <v>45240.307638888888</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="15">
-        <v>0.82708333333333339</v>
-      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -1831,24 +1816,22 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G14" s="8"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10">
-        <v>0.22708333333333333</v>
+        <v>45240.227083333331</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="15">
-        <v>0.55902777777777779</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="8"/>
@@ -1864,7 +1847,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
@@ -1876,12 +1859,10 @@
       <c r="G15" s="8"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10">
-        <v>0.32361111111111113</v>
+        <v>45240.323611111111</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="15">
-        <v>0.73819444444444438</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="8"/>
@@ -1897,7 +1878,7 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
@@ -1909,12 +1890,10 @@
       <c r="G16" s="8"/>
       <c r="I16" s="10"/>
       <c r="J16" s="14">
-        <v>0.4152777777777778</v>
+        <v>45240.415277777778</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="15">
-        <v>0.85763888888888884</v>
-      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="8"/>
@@ -3475,15 +3454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061BEB7EC909FFE4B9933A6CC2EDAA8AA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d8e6dda20f6ef4d3acd64d501c3102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d5566208-415f-41c3-8b4d-9f4806677333" xmlns:ns4="e5537340-bc61-4b78-9f61-d5db3f05086f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d31fc88802aed18126a802fc7f98642" ns3:_="" ns4:_="">
     <xsd:import namespace="d5566208-415f-41c3-8b4d-9f4806677333"/>
@@ -3666,6 +3636,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3675,14 +3654,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9E90C7-E343-45CD-A2F3-381BB8E5CFC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD395FE9-AC7A-41ED-A112-6912D5A452FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3697,6 +3668,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB9E90C7-E343-45CD-A2F3-381BB8E5CFC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
